--- a/01_計画/04_反復計画書.xlsx
+++ b/01_計画/04_反復計画書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D4328-218F-4F9D-8985-8E3A9528B6D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD37E49-4D6C-459B-A522-66D69CCF298C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="225" windowWidth="18945" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -688,7 +688,7 @@
 設計仕様書(更新)
 テスト計画書(更新)
 テスト済のソースコード(更新)
-反復振り返り結果（新規作成）</t>
+反復振り返り結果（更新）</t>
     <rPh sb="4" eb="6">
       <t>コウシン</t>
     </rPh>
@@ -730,6 +730,19 @@
     </rPh>
     <rPh sb="99" eb="101">
       <t>ケッカ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5日間</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1584,7 +1597,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1687,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -2202,18 +2215,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2235,14 +2248,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2256,4 +2261,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_計画/04_反復計画書.xlsx
+++ b/01_計画/04_反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD37E49-4D6C-459B-A522-66D69CCF298C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600177AB-492A-43B8-A1DB-DAE1DAF97559}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="225" windowWidth="18945" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -733,16 +733,6 @@
     </rPh>
     <rPh sb="102" eb="104">
       <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5日間</t>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1596,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1700,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -2215,18 +2205,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,6 +2238,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2261,12 +2259,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>